--- a/WorkBot/main/backend/ordering/OrderFiles/BJ's/BJ's_Bakery_20250324.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/BJ's/BJ's_Bakery_20250324.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>113.96</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.98</t>
+          <t>139.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>173339</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chobani - Drinkable Yogurt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>107.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>85727300866</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Supplement - Collagen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>203.94</t>
         </is>
       </c>
     </row>
